--- a/App/Safety Toolbox_Reports/Sample Reports/ExpiredCertifications.xlsx
+++ b/App/Safety Toolbox_Reports/Sample Reports/ExpiredCertifications.xlsx
@@ -10,7 +10,7 @@
     <sheet name="ExpiredCertifications" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ExpiredCertifications'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ExpiredCertifications'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -218,7 +218,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0">
-      <pane ySplit="6" state="frozen" topLeftCell="A7"/>
+      <pane ySplit="3" state="frozen" topLeftCell="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -236,182 +236,106 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="1" customHeight="0">
+    <row r="2" ht="18" customHeight="0">
       <c s="2" t="inlineStr" r="A2">
         <is>
-          <t xml:space="preserve">Training Type:</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="0">
-      <c s="2" t="inlineStr" r="B3">
+          <t xml:space="preserve">Certification:</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="B2">
         <is>
           <t xml:space="preserve">All</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="1" customHeight="0">
-      <c s="2" t="inlineStr" r="A4">
+    <row r="3" ht="18" customHeight="0">
+      <c s="2" t="inlineStr" r="A3">
         <is>
           <t xml:space="preserve">Cutoff Date:</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="17" customHeight="0">
-      <c s="3" r="B5">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="6" ht="1" customHeight="0"/>
-    <row r="7" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="A7">
+      <c s="3" r="B3">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="A4">
         <is>
           <t xml:space="preserve">Employee First Name</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="B7">
+      <c s="4" t="inlineStr" r="B4">
         <is>
           <t xml:space="preserve">Employee Last Name</t>
         </is>
       </c>
-      <c s="5" t="inlineStr" r="C7">
-        <is>
-          <t xml:space="preserve">Cert Type</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="D7">
+      <c s="5" t="inlineStr" r="C4">
+        <is>
+          <t xml:space="preserve">Certification</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="D4">
         <is>
           <t xml:space="preserve">Training Date</t>
         </is>
       </c>
-      <c s="5" t="inlineStr" r="E7">
+      <c s="5" t="inlineStr" r="E4">
         <is>
           <t xml:space="preserve">Expiry Date</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="0">
-      <c s="6" t="inlineStr" r="A8">
-        <is>
-          <t xml:space="preserve">Bob</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">Bobington</t>
-        </is>
-      </c>
-      <c s="7" t="inlineStr" r="C8">
-        <is>
-          <t xml:space="preserve">Crane Operation</t>
-        </is>
-      </c>
-      <c s="8" r="D8">
-        <v>43819</v>
-      </c>
-      <c s="8" r="E8">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="0">
-      <c s="6" t="inlineStr" r="A9">
-        <is>
-          <t xml:space="preserve">Bob</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="B9">
-        <is>
-          <t xml:space="preserve">Bobington</t>
-        </is>
-      </c>
-      <c s="7" t="inlineStr" r="C9">
-        <is>
-          <t xml:space="preserve">Supervision Training</t>
-        </is>
-      </c>
-      <c s="8" r="D9">
-        <v>43454</v>
-      </c>
-      <c s="8" r="E9">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="0">
-      <c s="6" t="inlineStr" r="A10">
+    <row r="5" ht="18" customHeight="0">
+      <c s="6" t="inlineStr" r="A5">
         <is>
           <t xml:space="preserve">Joe</t>
         </is>
       </c>
-      <c s="6" t="inlineStr" r="B10">
+      <c s="6" t="inlineStr" r="B5">
         <is>
           <t xml:space="preserve">Jones</t>
         </is>
       </c>
-      <c s="7" t="inlineStr" r="C10">
+      <c s="7" t="inlineStr" r="C5">
         <is>
           <t xml:space="preserve">Disc Lathe Operation</t>
         </is>
       </c>
-      <c s="8" r="D10">
+      <c s="8" r="D5">
         <v>44425</v>
       </c>
-      <c s="8" r="E10">
+      <c s="8" r="E5">
         <v>45311</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="0">
-      <c s="6" t="inlineStr" r="A11">
+    <row r="6" ht="18" customHeight="0">
+      <c s="6" t="inlineStr" r="A6">
         <is>
           <t xml:space="preserve">Joe</t>
         </is>
       </c>
-      <c s="6" t="inlineStr" r="B11">
+      <c s="6" t="inlineStr" r="B6">
         <is>
           <t xml:space="preserve">Jones</t>
         </is>
       </c>
-      <c s="7" t="inlineStr" r="C11">
+      <c s="7" t="inlineStr" r="C6">
         <is>
           <t xml:space="preserve">Kleen Press</t>
         </is>
       </c>
-      <c s="8" r="D11">
+      <c s="8" r="D6">
         <v>44316</v>
       </c>
-      <c s="8" r="E11">
+      <c s="8" r="E6">
         <v>45337</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="0">
-      <c s="6" t="inlineStr" r="A12">
-        <is>
-          <t xml:space="preserve">Sue</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="B12">
-        <is>
-          <t xml:space="preserve">Snow</t>
-        </is>
-      </c>
-      <c s="7" t="inlineStr" r="C12">
-        <is>
-          <t xml:space="preserve">First Aid</t>
-        </is>
-      </c>
-      <c s="8" r="D12">
-        <v>44027</v>
-      </c>
-      <c s="8" r="E12">
-        <v>45493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/App/Safety Toolbox_Reports/Sample Reports/ExpiredCertifications.xlsx
+++ b/App/Safety Toolbox_Reports/Sample Reports/ExpiredCertifications.xlsx
@@ -244,7 +244,7 @@
       </c>
       <c s="2" t="inlineStr" r="B2">
         <is>
-          <t xml:space="preserve">All</t>
+          <t xml:space="preserve">Disc Lathe Operation</t>
         </is>
       </c>
     </row>
@@ -255,7 +255,7 @@
         </is>
       </c>
       <c s="3" r="B3">
-        <v>45401</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="0">
@@ -306,29 +306,6 @@
       </c>
       <c s="8" r="E5">
         <v>45311</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="0">
-      <c s="6" t="inlineStr" r="A6">
-        <is>
-          <t xml:space="preserve">Joe</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="B6">
-        <is>
-          <t xml:space="preserve">Jones</t>
-        </is>
-      </c>
-      <c s="7" t="inlineStr" r="C6">
-        <is>
-          <t xml:space="preserve">Kleen Press</t>
-        </is>
-      </c>
-      <c s="8" r="D6">
-        <v>44316</v>
-      </c>
-      <c s="8" r="E6">
-        <v>45337</v>
       </c>
     </row>
   </sheetData>
